--- a/data.xlsx
+++ b/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="288">
   <si>
     <t>帖子id</t>
   </si>
@@ -29,6 +29,141 @@
     <t>浏览量</t>
   </si>
   <si>
+    <t>14636534</t>
+  </si>
+  <si>
+    <t>【有品米粉节】抢楼送柚家手口清洁湿巾，宝宝也能用哦！</t>
+  </si>
+  <si>
+    <t>03-30 16:19:21</t>
+  </si>
+  <si>
+    <t>891</t>
+  </si>
+  <si>
+    <t>8460</t>
+  </si>
+  <si>
+    <t>14607282</t>
+  </si>
+  <si>
+    <t>【有品米粉节】有品合伙人正式上线，小米社区优先审核通道</t>
+  </si>
+  <si>
+    <t>03-28 15:38:28</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>39769</t>
+  </si>
+  <si>
+    <t>14760807</t>
+  </si>
+  <si>
+    <t>会员中心米粉节狂欢！大量优惠券、橙色跑限量毛巾限时上架</t>
+  </si>
+  <si>
+    <t>04-04 12:13:47</t>
+  </si>
+  <si>
+    <t>2338</t>
+  </si>
+  <si>
+    <t>70368</t>
+  </si>
+  <si>
+    <t>14762246</t>
+  </si>
+  <si>
+    <t>开启清明假期的美好方式，从这张无门槛优惠券开始！</t>
+  </si>
+  <si>
+    <t>04-04 19:14:16</t>
+  </si>
+  <si>
+    <t>1644</t>
+  </si>
+  <si>
+    <t>10059</t>
+  </si>
+  <si>
+    <t>14605531</t>
+  </si>
+  <si>
+    <t>「摄影馆」上海·上海</t>
+  </si>
+  <si>
+    <t>03-28 09:39:54</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>2604</t>
+  </si>
+  <si>
+    <t>14762333</t>
+  </si>
+  <si>
+    <t>【抢楼送F码】米粉节，邀您拍视频，撩小米！</t>
+  </si>
+  <si>
+    <t>04-04 20:03:55</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>14607390</t>
+  </si>
+  <si>
+    <t>【THU米俱】校园俱乐部首发评测——小爱音箱mini到底怎么样？</t>
+  </si>
+  <si>
+    <t>03-28 16:01:13</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>5865</t>
+  </si>
+  <si>
+    <t>14637775</t>
+  </si>
+  <si>
+    <t>【抢楼】小米音乐曲库再升级，VIP会员免费限量送啦！</t>
+  </si>
+  <si>
+    <t>03-30 19:04:00</t>
+  </si>
+  <si>
+    <t>1486</t>
+  </si>
+  <si>
+    <t>22191</t>
+  </si>
+  <si>
+    <t>14756026</t>
+  </si>
+  <si>
+    <t>雷总确认：小米投资的黑鲨游戏手机来了！</t>
+  </si>
+  <si>
+    <t>04-03 13:54:35</t>
+  </si>
+  <si>
+    <t>5471</t>
+  </si>
+  <si>
+    <t>36654</t>
+  </si>
+  <si>
     <t>14606969</t>
   </si>
   <si>
@@ -38,25 +173,352 @@
     <t>03-28 14:40:49</t>
   </si>
   <si>
-    <t>2744</t>
-  </si>
-  <si>
-    <t>38840</t>
-  </si>
-  <si>
-    <t>14607282</t>
-  </si>
-  <si>
-    <t>【有品米粉节】有品合伙人正式上线，小米社区优先审核通道</t>
-  </si>
-  <si>
-    <t>03-28 15:38:28</t>
+    <t>2854</t>
+  </si>
+  <si>
+    <t>39545</t>
+  </si>
+  <si>
+    <t>14757670</t>
+  </si>
+  <si>
+    <t>华为魅族客服真贴心，所以米粉节我买了红米Note 5</t>
+  </si>
+  <si>
+    <t>04-03 21:28:04</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>1782</t>
+  </si>
+  <si>
+    <t>14761420</t>
+  </si>
+  <si>
+    <t>尊贵的米粉是怎么跑步的？速来围观</t>
+  </si>
+  <si>
+    <t>04-04 15:01:43</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>5277</t>
+  </si>
+  <si>
+    <t>14761729</t>
+  </si>
+  <si>
+    <t>《这就是街舞》最火的是什么？文末有新品福利！</t>
+  </si>
+  <si>
+    <t>04-04 15:49:50</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>1254</t>
+  </si>
+  <si>
+    <t>14755517</t>
+  </si>
+  <si>
+    <t>【简评】男友力MAX——小默AI相机</t>
+  </si>
+  <si>
+    <t>04-03 11:09:18</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>14752398</t>
+  </si>
+  <si>
+    <t>【购买必看】小爱mini开箱全面测评</t>
+  </si>
+  <si>
+    <t>04-02 23:38:15</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>7101</t>
+  </si>
+  <si>
+    <t>14756337</t>
+  </si>
+  <si>
+    <t>【抢楼送米兔儿童电话手表】送给孩子的好礼物！米粉节限时特惠</t>
+  </si>
+  <si>
+    <t>04-03 16:07:03</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>2292</t>
+  </si>
+  <si>
+    <t>14752088</t>
+  </si>
+  <si>
+    <t>米粉节攻略 | 小米电视新品 秒杀 优惠 想知道的都在这里！</t>
+  </si>
+  <si>
+    <t>04-02 17:51:20</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>14639018</t>
+  </si>
+  <si>
+    <t>寻找四月「微帖之星」，红米Note 5等你来赢，关注100%得金币！</t>
+  </si>
+  <si>
+    <t>04-02 15:01:12</t>
+  </si>
+  <si>
+    <t>6491</t>
+  </si>
+  <si>
+    <t>42079</t>
+  </si>
+  <si>
+    <t>14703766</t>
+  </si>
+  <si>
+    <t>实测之后，我明白了他们为什么说小米MIX 2S玩游戏爽过iPhone X</t>
+  </si>
+  <si>
+    <t>03-31 15:58:23</t>
+  </si>
+  <si>
+    <t>8633</t>
+  </si>
+  <si>
+    <t>86010</t>
+  </si>
+  <si>
+    <t>14755627</t>
+  </si>
+  <si>
+    <t>小米众测·第142期「稚行小轻星折叠儿童推车」众测开启</t>
+  </si>
+  <si>
+    <t>04-03 11:39:01</t>
+  </si>
+  <si>
+    <t>2563</t>
+  </si>
+  <si>
+    <t>13998</t>
+  </si>
+  <si>
+    <t>14756233</t>
+  </si>
+  <si>
+    <t>一起来玩8：米游福利大放送</t>
+  </si>
+  <si>
+    <t>04-03 15:30:58</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>14501933</t>
+  </si>
+  <si>
+    <t>【手机创意】自制刘海屏，MIX2“升级”方案全程解读</t>
+  </si>
+  <si>
+    <t>04-02 17:15:55</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>6745</t>
+  </si>
+  <si>
+    <t>14608342</t>
+  </si>
+  <si>
+    <t>【有品米粉节】抢楼送七面新品高跟鞋，期待与你相遇</t>
+  </si>
+  <si>
+    <t>03-28 20:27:32</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>8695</t>
+  </si>
+  <si>
+    <t>14751754</t>
+  </si>
+  <si>
+    <t>【话题讨论】汽车中控屏做那么大，是不是在坑钱？！</t>
+  </si>
+  <si>
+    <t>04-02 15:00:45</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>1512</t>
+  </si>
+  <si>
+    <t>14756274</t>
+  </si>
+  <si>
+    <t>【有品米粉节】和全球2000政要企业家用同一款贝医生巴氏牙刷！</t>
+  </si>
+  <si>
+    <t>04-03 15:58:59</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>7748</t>
+  </si>
+  <si>
+    <t>14751044</t>
+  </si>
+  <si>
+    <t>【MINI对战小爱同学】小米德比#巅峰对决#全网最全解析导购</t>
+  </si>
+  <si>
+    <t>04-02 23:39:41</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>2738</t>
+  </si>
+  <si>
+    <t>14762190</t>
+  </si>
+  <si>
+    <t>2018米粉节活动总规则，自助答疑及常见问题</t>
+  </si>
+  <si>
+    <t>04-04 18:43:15</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>14602801</t>
+  </si>
+  <si>
+    <t>最囧挑战2！给你意想不到的游戏结果，让你囧到无奈</t>
+  </si>
+  <si>
+    <t>03-27 20:44:38</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>7014</t>
+  </si>
+  <si>
+    <t>14634061</t>
+  </si>
+  <si>
+    <t>小米随身手电筒 | 又一款极简主义的良心佳作</t>
+  </si>
+  <si>
+    <t>03-30 10:58:40</t>
   </si>
   <si>
     <t>419</t>
   </si>
   <si>
-    <t>39509</t>
+    <t>3960</t>
+  </si>
+  <si>
+    <t>14615092</t>
+  </si>
+  <si>
+    <t>小米保温杯：温暖过整个冬天，喝水也是艺术</t>
+  </si>
+  <si>
+    <t>03-30 00:05:02</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>1639</t>
+  </si>
+  <si>
+    <t>14751314</t>
+  </si>
+  <si>
+    <t>【有品米粉节】价格超低又有范儿！小米有品揭秘6款家居新品</t>
+  </si>
+  <si>
+    <t>04-02 11:15:23</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>5639</t>
+  </si>
+  <si>
+    <t>14752483</t>
+  </si>
+  <si>
+    <t>【有品米粉节】今日全线引爆！百万福利抢到手软</t>
+  </si>
+  <si>
+    <t>04-02 20:47:31</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>19004</t>
+  </si>
+  <si>
+    <t>14757649</t>
+  </si>
+  <si>
+    <t>【小默AI相机】重新定义拍照  居家旅行必备神器</t>
+  </si>
+  <si>
+    <t>04-03 22:39:05</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>14756268</t>
@@ -68,115 +530,265 @@
     <t>04-03 15:41:26</t>
   </si>
   <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>2382</t>
+  </si>
+  <si>
+    <t>14609760</t>
+  </si>
+  <si>
+    <t>【有品米粉节】和极印小浪一下，会玩抖音的都聚集到这里了</t>
+  </si>
+  <si>
+    <t>04-03 13:46:13</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>3915</t>
+  </si>
+  <si>
+    <t>14559566</t>
+  </si>
+  <si>
+    <t>小米MIX 2S专享游戏 | 大片级享受 体验不一样的春天</t>
+  </si>
+  <si>
+    <t>03-19 22:17:51</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>4471</t>
+  </si>
+  <si>
+    <t>14750136</t>
+  </si>
+  <si>
+    <t>《故事会》杂志官方正版破解！品人间冷暖，感知世态炎凉</t>
+  </si>
+  <si>
+    <t>04-01 22:09:11</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>1664</t>
+  </si>
+  <si>
+    <t>14749470</t>
+  </si>
+  <si>
+    <t>小爱音箱 VS 小爱音箱mini 到底有何不同</t>
+  </si>
+  <si>
+    <t>04-01 13:49:36</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>11791</t>
+  </si>
+  <si>
+    <t>14707528</t>
+  </si>
+  <si>
+    <t>「摄影馆」魔芋AI翻译机 美图</t>
+  </si>
+  <si>
+    <t>03-31 16:17:09</t>
+  </si>
+  <si>
     <t>148</t>
   </si>
   <si>
-    <t>2344</t>
-  </si>
-  <si>
-    <t>14752483</t>
-  </si>
-  <si>
-    <t>【有品米粉节】今日全线引爆！百万福利抢到手软</t>
-  </si>
-  <si>
-    <t>04-02 20:47:31</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>18731</t>
-  </si>
-  <si>
-    <t>14762246</t>
-  </si>
-  <si>
-    <t>开启清明假期的美好方式，从这张无门槛优惠券开始！</t>
-  </si>
-  <si>
-    <t>04-04 19:14:16</t>
-  </si>
-  <si>
-    <t>1408</t>
-  </si>
-  <si>
-    <t>8623</t>
-  </si>
-  <si>
-    <t>14756233</t>
-  </si>
-  <si>
-    <t>一起来玩8：米游福利大放送</t>
-  </si>
-  <si>
-    <t>04-03 15:30:58</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>1925</t>
-  </si>
-  <si>
-    <t>14752088</t>
-  </si>
-  <si>
-    <t>米粉节攻略 | 小米电视新品 秒杀 优惠 想知道的都在这里！</t>
-  </si>
-  <si>
-    <t>04-02 17:51:20</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>2906</t>
-  </si>
-  <si>
-    <t>14751044</t>
-  </si>
-  <si>
-    <t>【MINI对战小爱同学】小米德比#巅峰对决#全网最全解析导购</t>
-  </si>
-  <si>
-    <t>04-02 23:39:41</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>2706</t>
-  </si>
-  <si>
-    <t>14752398</t>
-  </si>
-  <si>
-    <t>【购买必看】小爱mini开箱全面测评</t>
-  </si>
-  <si>
-    <t>04-02 23:38:15</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>6940</t>
-  </si>
-  <si>
-    <t>14637775</t>
-  </si>
-  <si>
-    <t>【抢楼】小米音乐曲库再升级，VIP会员免费限量送啦！</t>
-  </si>
-  <si>
-    <t>03-30 19:04:00</t>
-  </si>
-  <si>
-    <t>1464</t>
-  </si>
-  <si>
-    <t>21555</t>
+    <t>4602</t>
+  </si>
+  <si>
+    <t>14751143</t>
+  </si>
+  <si>
+    <t>【狂欢中】一路有品！米粉节有品周年庆福利活动、优惠攻略都在这</t>
+  </si>
+  <si>
+    <t>04-02 11:25:41</t>
+  </si>
+  <si>
+    <t>7375</t>
+  </si>
+  <si>
+    <t>93694</t>
+  </si>
+  <si>
+    <t>14761254</t>
+  </si>
+  <si>
+    <t>连中国维和警察都忍不住点赞，小米MIX2S的全网通5.0究竟有多牛？</t>
+  </si>
+  <si>
+    <t>04-04 13:22:48</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1336</t>
+  </si>
+  <si>
+    <t>14762114</t>
+  </si>
+  <si>
+    <t>最新电视出货量排名出炉: 小米电视进入全球前十, 中国前三强!</t>
+  </si>
+  <si>
+    <t>04-04 18:04:29</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>14751842</t>
+  </si>
+  <si>
+    <t>《小米超神》4月2日到4月8日本周限免英雄名单</t>
+  </si>
+  <si>
+    <t>04-02 15:50:25</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>821</t>
+  </si>
+  <si>
+    <t>14501935</t>
+  </si>
+  <si>
+    <t>【实用技巧】MIX2S非常规性问题，米粉重点关注这十问十答</t>
+  </si>
+  <si>
+    <t>04-04 10:48:32</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>2585</t>
+  </si>
+  <si>
+    <t>14501931</t>
+  </si>
+  <si>
+    <t>【实用技巧】小米社区隐藏技巧首次揭秘，米粉进阶必会功法</t>
+  </si>
+  <si>
+    <t>04-01 16:10:28</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>7346</t>
+  </si>
+  <si>
+    <t>14760883</t>
+  </si>
+  <si>
+    <t>【转载】小米电视4A、4S和4C有啥不同，点这里了解超详细对比！</t>
+  </si>
+  <si>
+    <t>04-04 11:19:56</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>14611694</t>
+  </si>
+  <si>
+    <t>【小米手机随手拍】这些东西，你小时候肯定吃过和玩过！</t>
+  </si>
+  <si>
+    <t>03-29 11:10:10</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>1357</t>
+  </si>
+  <si>
+    <t>14749680</t>
+  </si>
+  <si>
+    <t>千元水桶机--无所不能霸气红米Note 5</t>
+  </si>
+  <si>
+    <t>04-04 00:48:51</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>14752100</t>
+  </si>
+  <si>
+    <t>【小默AI相机】解放双手的拍照神器了解一下？</t>
+  </si>
+  <si>
+    <t>04-02 17:56:32</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>14762467</t>
+  </si>
+  <si>
+    <t>米兔指尖积木▶您的解压神器</t>
+  </si>
+  <si>
+    <t>04-04 21:13:09</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>14762210</t>
+  </si>
+  <si>
+    <t>米粉心中最酷的汽车媒体平台 — 米车生活App上线啦！</t>
+  </si>
+  <si>
+    <t>04-04 19:08:48</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>195</t>
   </si>
   <si>
     <t>14601180</t>
@@ -191,142 +803,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>14756274</t>
-  </si>
-  <si>
-    <t>【有品米粉节】和全球2000政要企业家用同一款贝医生巴氏牙刷！</t>
-  </si>
-  <si>
-    <t>04-03 15:58:59</t>
-  </si>
-  <si>
-    <t>469</t>
-  </si>
-  <si>
-    <t>7291</t>
-  </si>
-  <si>
-    <t>14605531</t>
-  </si>
-  <si>
-    <t>「摄影馆」上海·上海</t>
-  </si>
-  <si>
-    <t>03-28 09:39:54</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>2554</t>
-  </si>
-  <si>
-    <t>14749470</t>
-  </si>
-  <si>
-    <t>小爱音箱 VS 小爱音箱mini 到底有何不同</t>
-  </si>
-  <si>
-    <t>04-01 13:49:36</t>
-  </si>
-  <si>
-    <t>483</t>
-  </si>
-  <si>
-    <t>11505</t>
-  </si>
-  <si>
-    <t>14762333</t>
-  </si>
-  <si>
-    <t>【抢楼送F码】米粉节，邀您拍视频，撩小米！</t>
-  </si>
-  <si>
-    <t>04-04 20:03:55</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>14608342</t>
-  </si>
-  <si>
-    <t>【有品米粉节】抢楼送七面新品高跟鞋，期待与你相遇</t>
-  </si>
-  <si>
-    <t>03-28 20:27:32</t>
-  </si>
-  <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>8447</t>
-  </si>
-  <si>
-    <t>14751314</t>
-  </si>
-  <si>
-    <t>【有品米粉节】价格超低又有范儿！小米有品揭秘6款家居新品</t>
-  </si>
-  <si>
-    <t>04-02 11:15:23</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>5417</t>
-  </si>
-  <si>
-    <t>14762190</t>
-  </si>
-  <si>
-    <t>2018米粉节活动总规则，自助答疑及常见问题</t>
-  </si>
-  <si>
-    <t>04-04 18:43:15</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>14501933</t>
-  </si>
-  <si>
-    <t>【手机创意】自制刘海屏，MIX2“升级”方案全程解读</t>
-  </si>
-  <si>
-    <t>04-02 17:15:55</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>6657</t>
-  </si>
-  <si>
-    <t>14756337</t>
-  </si>
-  <si>
-    <t>【抢楼送米兔儿童电话手表】送给孩子的好礼物！米粉节限时特惠</t>
-  </si>
-  <si>
-    <t>04-03 16:07:03</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>2178</t>
+    <t>302</t>
   </si>
   <si>
     <t>14749591</t>
@@ -341,154 +818,52 @@
     <t>394</t>
   </si>
   <si>
-    <t>9002</t>
-  </si>
-  <si>
-    <t>14761729</t>
-  </si>
-  <si>
-    <t>《这就是街舞》最火的是什么？文末有新品福利！</t>
-  </si>
-  <si>
-    <t>04-04 15:49:50</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>1064</t>
-  </si>
-  <si>
-    <t>14760807</t>
-  </si>
-  <si>
-    <t>会员中心米粉节狂欢！大量优惠券、橙色跑限量毛巾限时上架</t>
-  </si>
-  <si>
-    <t>04-04 12:13:47</t>
-  </si>
-  <si>
-    <t>2125</t>
-  </si>
-  <si>
-    <t>68860</t>
-  </si>
-  <si>
-    <t>14501935</t>
-  </si>
-  <si>
-    <t>【实用技巧】MIX2S非常规性问题，米粉重点关注这十问十答</t>
-  </si>
-  <si>
-    <t>04-04 10:48:32</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>2527</t>
-  </si>
-  <si>
-    <t>14703766</t>
-  </si>
-  <si>
-    <t>实测之后，我明白了他们为什么说小米MIX 2S玩游戏爽过iPhone X</t>
-  </si>
-  <si>
-    <t>03-31 15:58:23</t>
-  </si>
-  <si>
-    <t>8508</t>
-  </si>
-  <si>
-    <t>85209</t>
-  </si>
-  <si>
-    <t>14609760</t>
-  </si>
-  <si>
-    <t>【有品米粉节】和极印小浪一下，会玩抖音的都聚集到这里了</t>
-  </si>
-  <si>
-    <t>04-03 13:46:13</t>
-  </si>
-  <si>
-    <t>3684</t>
-  </si>
-  <si>
-    <t>14750136</t>
-  </si>
-  <si>
-    <t>《故事会》杂志官方正版破解！品人间冷暖，感知世态炎凉</t>
-  </si>
-  <si>
-    <t>04-01 22:09:11</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>1633</t>
-  </si>
-  <si>
-    <t>14756026</t>
-  </si>
-  <si>
-    <t>雷总确认：小米投资的黑鲨游戏手机来了！</t>
-  </si>
-  <si>
-    <t>04-03 13:54:35</t>
-  </si>
-  <si>
-    <t>5396</t>
-  </si>
-  <si>
-    <t>35868</t>
-  </si>
-  <si>
-    <t>14757649</t>
-  </si>
-  <si>
-    <t>【小默AI相机】重新定义拍照  居家旅行必备神器</t>
-  </si>
-  <si>
-    <t>04-03 22:39:05</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>14755627</t>
-  </si>
-  <si>
-    <t>小米众测·第142期「稚行小轻星折叠儿童推车」众测开启</t>
-  </si>
-  <si>
-    <t>04-03 11:39:01</t>
-  </si>
-  <si>
-    <t>2559</t>
-  </si>
-  <si>
-    <t>13546</t>
-  </si>
-  <si>
-    <t>14636534</t>
-  </si>
-  <si>
-    <t>【有品米粉节】抢楼送柚家手口清洁湿巾，宝宝也能用哦！</t>
-  </si>
-  <si>
-    <t>03-30 16:19:21</t>
-  </si>
-  <si>
-    <t>886</t>
-  </si>
-  <si>
-    <t>8189</t>
+    <t>9090</t>
+  </si>
+  <si>
+    <t>14762838</t>
+  </si>
+  <si>
+    <t>【活动】米兔积木机器人车展晒图开始啦！米兔指尖积木等你来拿！</t>
+  </si>
+  <si>
+    <t>04-04 23:30:21</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>14751568</t>
+  </si>
+  <si>
+    <t>一起狂欢8！2018米粉节活动全攻略（持续更新）</t>
+  </si>
+  <si>
+    <t>04-02 13:48:17</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>2628</t>
+  </si>
+  <si>
+    <t>14760197</t>
+  </si>
+  <si>
+    <t>【带着亮银米6】 探索MIX2s发布会</t>
+  </si>
+  <si>
+    <t>04-04 08:15:26</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>643</t>
   </si>
   <si>
     <t>14752077</t>
@@ -500,97 +875,7 @@
     <t>04-02 17:49:22</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>1678</t>
-  </si>
-  <si>
-    <t>14751754</t>
-  </si>
-  <si>
-    <t>【话题讨论】汽车中控屏做那么大，是不是在坑钱？！</t>
-  </si>
-  <si>
-    <t>04-02 15:00:45</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>1455</t>
-  </si>
-  <si>
-    <t>14602801</t>
-  </si>
-  <si>
-    <t>最囧挑战2！给你意想不到的游戏结果，让你囧到无奈</t>
-  </si>
-  <si>
-    <t>03-27 20:44:38</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>6902</t>
-  </si>
-  <si>
-    <t>14751143</t>
-  </si>
-  <si>
-    <t>【狂欢中】一路有品！米粉节有品周年庆福利活动、优惠攻略都在这</t>
-  </si>
-  <si>
-    <t>04-02 11:25:41</t>
-  </si>
-  <si>
-    <t>7370</t>
-  </si>
-  <si>
-    <t>92760</t>
-  </si>
-  <si>
-    <t>14607390</t>
-  </si>
-  <si>
-    <t>【THU米俱】校园俱乐部首发评测——小爱音箱mini到底怎么样？</t>
-  </si>
-  <si>
-    <t>03-28 16:01:13</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>5782</t>
-  </si>
-  <si>
-    <t>14761420</t>
-  </si>
-  <si>
-    <t>尊贵的米粉是怎么跑步的？速来围观</t>
-  </si>
-  <si>
-    <t>04-04 15:01:43</t>
-  </si>
-  <si>
-    <t>922</t>
-  </si>
-  <si>
-    <t>4411</t>
-  </si>
-  <si>
-    <t>14634061</t>
-  </si>
-  <si>
-    <t>小米随身手电筒 | 又一款极简主义的良心佳作</t>
-  </si>
-  <si>
-    <t>03-30 10:58:40</t>
-  </si>
-  <si>
-    <t>3924</t>
+    <t>1720</t>
   </si>
 </sst>
 </file>
@@ -967,7 +1252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E58"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1423,129 +1708,129 @@
         <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1627,10 +1912,333 @@
         <v>191</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" t="s">
+        <v>217</v>
+      </c>
+      <c r="E44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>224</v>
+      </c>
+      <c r="B46" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" t="s">
+        <v>242</v>
+      </c>
+      <c r="E49" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" t="s">
+        <v>247</v>
+      </c>
+      <c r="E50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" t="s">
+        <v>251</v>
+      </c>
+      <c r="D51" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D52" t="s">
+        <v>257</v>
+      </c>
+      <c r="E52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>259</v>
+      </c>
+      <c r="B53" t="s">
+        <v>260</v>
+      </c>
+      <c r="C53" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" t="s">
+        <v>262</v>
+      </c>
+      <c r="E53" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>264</v>
+      </c>
+      <c r="B54" t="s">
+        <v>265</v>
+      </c>
+      <c r="C54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54" t="s">
+        <v>267</v>
+      </c>
+      <c r="E54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>269</v>
+      </c>
+      <c r="B55" t="s">
+        <v>270</v>
+      </c>
+      <c r="C55" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55" t="s">
+        <v>272</v>
+      </c>
+      <c r="E55" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>274</v>
+      </c>
+      <c r="B56" t="s">
+        <v>275</v>
+      </c>
+      <c r="C56" t="s">
+        <v>276</v>
+      </c>
+      <c r="D56" t="s">
+        <v>277</v>
+      </c>
+      <c r="E56" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>279</v>
+      </c>
+      <c r="B57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C57" t="s">
+        <v>281</v>
+      </c>
+      <c r="D57" t="s">
+        <v>282</v>
+      </c>
+      <c r="E57" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B58" t="s">
+        <v>285</v>
+      </c>
+      <c r="C58" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58" t="s">
+        <v>282</v>
+      </c>
+      <c r="E58" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
